--- a/exampleapp/example-web/example-web-form-applied.xlsx
+++ b/exampleapp/example-web/example-web-form-applied.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1949" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1949" uniqueCount="232">
   <si>
     <t>機能ID</t>
     <rPh sb="0" eb="2">
@@ -1082,14 +1082,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>cherry.example.web.SortParam</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cherry.example.web.SortParam</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>item</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1107,14 +1099,6 @@
   </si>
   <si>
     <t>サブフォーム型</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cherry.example.web.SortParam</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cherry.example.web.SortParam</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1167,6 +1151,9 @@
   <si>
     <t>subformType</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cherry.foundation.spring.webmvc.SortParam</t>
   </si>
 </sst>
 </file>
@@ -2135,7 +2122,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3495,7 +3482,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>6</v>
@@ -4127,7 +4114,7 @@
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>108</v>
@@ -4162,7 +4149,7 @@
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>108</v>
@@ -4620,14 +4607,14 @@
         <v>197</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>199</v>
@@ -4876,7 +4863,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>14</v>
@@ -6431,7 +6418,7 @@
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>44</v>
@@ -6466,7 +6453,7 @@
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>44</v>
@@ -6777,7 +6764,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>14</v>
@@ -6924,14 +6911,14 @@
         <v>197</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>199</v>
@@ -8364,11 +8351,11 @@
         <v>159</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>199</v>
@@ -9246,7 +9233,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>6</v>
@@ -9308,7 +9295,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>14</v>
@@ -11535,7 +11522,7 @@
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>44</v>
@@ -11570,7 +11557,7 @@
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>44</v>
@@ -12242,17 +12229,17 @@
         <v>197</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>200</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -12498,7 +12485,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>14</v>
@@ -13018,7 +13005,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>6</v>
@@ -13650,7 +13637,7 @@
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>44</v>
@@ -13685,7 +13672,7 @@
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>44</v>
@@ -14357,14 +14344,14 @@
         <v>197</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>200</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
